--- a/C61/Sprint 3/Planification.xlsx
+++ b/C61/Sprint 3/Planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Poletipo\Documents\Technique Informatique\Projet_Synthese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Projects\Projet-Synthese\C61\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F6C83-6599-4DCF-8165-3395864D26AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE7A509-241B-4C49-A64E-AAA000AECAA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{678AA11A-0792-4354-90B7-EA3F21D68818}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{678AA11A-0792-4354-90B7-EA3F21D68818}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>Jimmy Labrecque</t>
   </si>
@@ -233,13 +233,46 @@
   </si>
   <si>
     <t>Temps total</t>
+  </si>
+  <si>
+    <t>Pourcentage</t>
+  </si>
+  <si>
+    <t>Decoration</t>
+  </si>
+  <si>
+    <t>Spawner des objets pour mettre un peu de vie dans les grottes</t>
+  </si>
+  <si>
+    <t>Explication</t>
+  </si>
+  <si>
+    <t>Il y a toujour place a plus d'optimisation</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Removed Content</t>
+  </si>
+  <si>
+    <t>Manque Animation pour grappin</t>
+  </si>
+  <si>
+    <t>Sons de base seulement</t>
+  </si>
+  <si>
+    <t>Trop de travail car il faut prendre compte qu'il faut sauvegarder les decoration du chunk.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +326,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -478,11 +524,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,9 +645,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F91D7B-02D9-4398-B2E8-29196770AC40}">
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,21 +991,23 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="H2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:14" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B4" s="4"/>
       <c r="H4" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
@@ -953,8 +1032,14 @@
       <c r="L8" s="31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E9" s="9">
         <v>1</v>
       </c>
@@ -975,8 +1060,12 @@
       <c r="L9" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="54">
+        <v>1</v>
+      </c>
+      <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="10">
         <f>E9+1</f>
         <v>2</v>
@@ -1000,10 +1089,14 @@
       <c r="L10" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="54">
+        <v>1</v>
+      </c>
+      <c r="N10" s="59"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="10">
-        <f t="shared" ref="E11:E38" si="0">E10+1</f>
+        <f t="shared" ref="E11:E36" si="0">E10+1</f>
         <v>3</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -1023,8 +1116,12 @@
       <c r="L11" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M11" s="54">
+        <v>1</v>
+      </c>
+      <c r="N11" s="59"/>
+    </row>
+    <row r="12" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1050,8 +1147,12 @@
       <c r="L12" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M12" s="54">
+        <v>1</v>
+      </c>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1077,8 +1178,12 @@
       <c r="L13" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M13" s="54">
+        <v>1</v>
+      </c>
+      <c r="N13" s="59"/>
+    </row>
+    <row r="14" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1104,8 +1209,12 @@
       <c r="L14" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="54">
+        <v>1</v>
+      </c>
+      <c r="N14" s="59"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1129,8 +1238,12 @@
       <c r="L15" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="54">
+        <v>1</v>
+      </c>
+      <c r="N15" s="59"/>
+    </row>
+    <row r="16" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1154,8 +1267,12 @@
       <c r="L16" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M16" s="54">
+        <v>1</v>
+      </c>
+      <c r="N16" s="59"/>
+    </row>
+    <row r="17" spans="5:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="E17" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1181,8 +1298,12 @@
       <c r="L17" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M17" s="54">
+        <v>1</v>
+      </c>
+      <c r="N17" s="59"/>
+    </row>
+    <row r="18" spans="5:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1204,8 +1325,12 @@
       <c r="L18" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M18" s="54">
+        <v>1</v>
+      </c>
+      <c r="N18" s="59"/>
+    </row>
+    <row r="19" spans="5:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1231,8 +1356,12 @@
       <c r="L19" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="54">
+        <v>1</v>
+      </c>
+      <c r="N19" s="59"/>
+    </row>
+    <row r="20" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1256,8 +1385,12 @@
       <c r="L20" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="54">
+        <v>1</v>
+      </c>
+      <c r="N20" s="59"/>
+    </row>
+    <row r="21" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1279,8 +1412,12 @@
       <c r="L21" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="54">
+        <v>1</v>
+      </c>
+      <c r="N21" s="59"/>
+    </row>
+    <row r="22" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1302,8 +1439,12 @@
       <c r="L22" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="54">
+        <v>1</v>
+      </c>
+      <c r="N22" s="59"/>
+    </row>
+    <row r="23" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1327,8 +1468,12 @@
       <c r="L23" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="54">
+        <v>1</v>
+      </c>
+      <c r="N23" s="59"/>
+    </row>
+    <row r="24" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1352,8 +1497,12 @@
       <c r="L24" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="54">
+        <v>1</v>
+      </c>
+      <c r="N24" s="59"/>
+    </row>
+    <row r="25" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1377,8 +1526,12 @@
       <c r="L25" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="54">
+        <v>1</v>
+      </c>
+      <c r="N25" s="59"/>
+    </row>
+    <row r="26" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1402,8 +1555,12 @@
       <c r="L26" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="54">
+        <v>1</v>
+      </c>
+      <c r="N26" s="59"/>
+    </row>
+    <row r="27" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1427,8 +1584,12 @@
       <c r="L27" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="54">
+        <v>1</v>
+      </c>
+      <c r="N27" s="59"/>
+    </row>
+    <row r="28" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1452,8 +1613,14 @@
       <c r="L28" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="54">
+        <v>0</v>
+      </c>
+      <c r="N28" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1477,8 +1644,14 @@
       <c r="L29" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="5:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M29" s="54">
+        <v>0</v>
+      </c>
+      <c r="N29" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1504,8 +1677,12 @@
       <c r="L30" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M30" s="54">
+        <v>1</v>
+      </c>
+      <c r="N30" s="59"/>
+    </row>
+    <row r="31" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1531,8 +1708,12 @@
       <c r="L31" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M31" s="54">
+        <v>1</v>
+      </c>
+      <c r="N31" s="59"/>
+    </row>
+    <row r="32" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1556,8 +1737,12 @@
       <c r="L32" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M32" s="54">
+        <v>1</v>
+      </c>
+      <c r="N32" s="59"/>
+    </row>
+    <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E33" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1581,35 +1766,109 @@
       <c r="L33" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E36" s="5"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E34" s="55">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="22">
+        <v>5</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="29">
+        <v>180</v>
+      </c>
+      <c r="L34" s="33">
+        <v>3</v>
+      </c>
+      <c r="M34" s="54">
+        <v>0</v>
+      </c>
+      <c r="N34" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="55">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="22">
+        <v>3</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="29">
+        <v>100</v>
+      </c>
+      <c r="L35" s="33">
+        <v>3</v>
+      </c>
+      <c r="M35" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="N35" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E36" s="56">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="28">
+        <v>3</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="30">
+        <v>30</v>
+      </c>
+      <c r="L36" s="33">
+        <v>3</v>
+      </c>
+      <c r="M36" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="N36" s="60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="8"/>
       <c r="G37" s="6"/>
@@ -1618,7 +1877,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
       <c r="F38" s="8"/>
       <c r="G38" s="6"/>
@@ -1627,13 +1886,13 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
     </row>
   </sheetData>
@@ -1646,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9B54FF-651B-4E56-8F42-85F8FE822D17}">
   <dimension ref="C6:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="46">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1717,7 +1976,7 @@
         <v>660</v>
       </c>
       <c r="F10" s="53">
-        <v>660</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
